--- a/RESULTS/COLLECTED BASE/COLLECT BASE.xlsx
+++ b/RESULTS/COLLECTED BASE/COLLECT BASE.xlsx
@@ -127,7 +127,47 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Base</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29912037037037"/>
+          <c:y val="0.0173611111111111"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -165,9 +205,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.0534472714032133"/>
-          <c:y val="0.0769464285714286"/>
+          <c:y val="0.118612933799942"/>
           <c:w val="0.92343134131355"/>
-          <c:h val="0.884306664791901"/>
+          <c:h val="0.762413604549431"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -274,11 +314,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-230465616"/>
-        <c:axId val="-234557120"/>
+        <c:axId val="-237799680"/>
+        <c:axId val="-237797360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-230465616"/>
+        <c:axId val="-237799680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -321,7 +361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-234557120"/>
+        <c:crossAx val="-237797360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -329,7 +369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-234557120"/>
+        <c:axId val="-237797360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -381,7 +421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-230465616"/>
+        <c:crossAx val="-237799680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -978,20 +1018,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1274,7 +1316,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
